--- a/Trabalho2/Habitacoes_Consolidado.xlsx
+++ b/Trabalho2/Habitacoes_Consolidado.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grupo EMAC\OneDrive - Universidade Aberta\Documents\GitHub\Visualiza-o-de-Informa-o-2025-26\Trabalho2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F7B82-BB9A-4B74-9C80-7AAC281C6EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C0CFE-CD58-4B5D-BAD7-DCB7F5C03CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4064E5A4-5777-453F-B1AD-C009AC79B69D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="3" r:id="rId1"/>
+    <sheet name="Habitacoes" sheetId="3" r:id="rId1"/>
+    <sheet name="Referencias" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -220,6 +221,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -233,6 +235,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -246,6 +249,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -259,6 +263,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -272,6 +277,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -285,6 +291,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -298,6 +305,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -459,17 +467,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE089364-0421-42BA-9BFF-7A9189675364}" name="Tabela1" displayName="Tabela1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:I21" xr:uid="{DE089364-0421-42BA-9BFF-7A9189675364}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CF2619F3-CA13-4FF3-8464-3E46CB40D472}" name="Distrito" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{2BFBBC7D-09EF-4D0E-A037-10C325B40C48}" name="1940" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{914F955F-6B45-4DAD-B751-C6A591923CDE}" name="1950" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{794D1BE5-100E-4A05-98A9-3118712E08DA}" name="1960" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E24C31A9-4E0E-4777-AF31-8E123A1FB271}" name="1981" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D414AC5E-C5F6-437C-8687-7D118ECC1B1F}" name="1991" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DD9DC9C0-B683-418F-8F1B-87FAAF7690CC}" name="2001" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F3CC5E97-E78D-438A-940C-F89FFDA142FE}" name="2011" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2E83D8F1-F2BD-48F3-981E-6BD914D50768}" name="2021" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F3CC5E97-E78D-438A-940C-F89FFDA142FE}" name="2011" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DD9DC9C0-B683-418F-8F1B-87FAAF7690CC}" name="2001" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{D414AC5E-C5F6-437C-8687-7D118ECC1B1F}" name="1991" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E24C31A9-4E0E-4777-AF31-8E123A1FB271}" name="1981" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{794D1BE5-100E-4A05-98A9-3118712E08DA}" name="1960" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{914F955F-6B45-4DAD-B751-C6A591923CDE}" name="1950" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{2BFBBC7D-09EF-4D0E-A037-10C325B40C48}" name="1940" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -792,15 +799,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DEAF7-1B7B-4117-8D74-783B31F77261}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="13.88671875" customWidth="1"/>
+    <col min="1" max="9" width="13.88671875" customWidth="1"/>
+    <col min="17" max="263" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -808,28 +816,28 @@
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -837,28 +845,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
+        <v>124954</v>
+      </c>
+      <c r="C2" s="1">
+        <v>139290</v>
+      </c>
+      <c r="D2" s="1">
+        <v>164040</v>
+      </c>
+      <c r="E2" s="1">
+        <v>168148</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200569</v>
+      </c>
+      <c r="G2" s="1">
+        <v>226306</v>
+      </c>
+      <c r="H2" s="1">
+        <v>254407</v>
+      </c>
+      <c r="I2" s="1">
         <v>257230</v>
-      </c>
-      <c r="C2" s="1">
-        <v>254407</v>
-      </c>
-      <c r="D2" s="1">
-        <v>226306</v>
-      </c>
-      <c r="E2" s="1">
-        <v>200569</v>
-      </c>
-      <c r="F2" s="1">
-        <v>168148</v>
-      </c>
-      <c r="G2" s="1">
-        <v>164040</v>
-      </c>
-      <c r="H2" s="1">
-        <v>139290</v>
-      </c>
-      <c r="I2" s="1">
-        <v>124954</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
@@ -869,28 +877,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
+        <v>76862</v>
+      </c>
+      <c r="C3" s="2">
+        <v>88856</v>
+      </c>
+      <c r="D3" s="2">
+        <v>96903</v>
+      </c>
+      <c r="E3" s="2">
+        <v>75785</v>
+      </c>
+      <c r="F3" s="2">
+        <v>79905</v>
+      </c>
+      <c r="G3" s="2">
+        <v>87204</v>
+      </c>
+      <c r="H3" s="2">
+        <v>93350</v>
+      </c>
+      <c r="I3" s="2">
         <v>94143</v>
-      </c>
-      <c r="C3" s="2">
-        <v>93350</v>
-      </c>
-      <c r="D3" s="2">
-        <v>87204</v>
-      </c>
-      <c r="E3" s="2">
-        <v>79905</v>
-      </c>
-      <c r="F3" s="2">
-        <v>75785</v>
-      </c>
-      <c r="G3" s="2">
-        <v>96903</v>
-      </c>
-      <c r="H3" s="2">
-        <v>88856</v>
-      </c>
-      <c r="I3" s="2">
-        <v>76862</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -901,28 +909,28 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
+        <v>113354</v>
+      </c>
+      <c r="C4" s="2">
+        <v>132868</v>
+      </c>
+      <c r="D4" s="2">
+        <v>153336</v>
+      </c>
+      <c r="E4" s="2">
+        <v>163552</v>
+      </c>
+      <c r="F4" s="2">
+        <v>199562</v>
+      </c>
+      <c r="G4" s="2">
+        <v>232010</v>
+      </c>
+      <c r="H4" s="2">
+        <v>268462</v>
+      </c>
+      <c r="I4" s="2">
         <v>278807</v>
-      </c>
-      <c r="C4" s="2">
-        <v>268462</v>
-      </c>
-      <c r="D4" s="2">
-        <v>232010</v>
-      </c>
-      <c r="E4" s="2">
-        <v>199562</v>
-      </c>
-      <c r="F4" s="2">
-        <v>163552</v>
-      </c>
-      <c r="G4" s="2">
-        <v>153336</v>
-      </c>
-      <c r="H4" s="2">
-        <v>132868</v>
-      </c>
-      <c r="I4" s="2">
-        <v>113354</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -933,28 +941,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
+        <v>74046</v>
+      </c>
+      <c r="C5" s="2">
+        <v>93870</v>
+      </c>
+      <c r="D5" s="2">
+        <v>107568</v>
+      </c>
+      <c r="E5" s="2">
+        <v>66117</v>
+      </c>
+      <c r="F5" s="2">
+        <v>74765</v>
+      </c>
+      <c r="G5" s="2">
+        <v>82067</v>
+      </c>
+      <c r="H5" s="2">
+        <v>84325</v>
+      </c>
+      <c r="I5" s="2">
         <v>85576</v>
-      </c>
-      <c r="C5" s="2">
-        <v>84325</v>
-      </c>
-      <c r="D5" s="2">
-        <v>82067</v>
-      </c>
-      <c r="E5" s="2">
-        <v>74765</v>
-      </c>
-      <c r="F5" s="2">
-        <v>66117</v>
-      </c>
-      <c r="G5" s="2">
-        <v>107568</v>
-      </c>
-      <c r="H5" s="2">
-        <v>93870</v>
-      </c>
-      <c r="I5" s="2">
-        <v>74046</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -965,28 +973,28 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
+        <v>117112</v>
+      </c>
+      <c r="C6" s="2">
+        <v>139348</v>
+      </c>
+      <c r="D6" s="2">
+        <v>173163</v>
+      </c>
+      <c r="E6" s="2">
+        <v>97932</v>
+      </c>
+      <c r="F6" s="2">
+        <v>103614</v>
+      </c>
+      <c r="G6" s="2">
+        <v>106476</v>
+      </c>
+      <c r="H6" s="2">
+        <v>114470</v>
+      </c>
+      <c r="I6" s="2">
         <v>116715</v>
-      </c>
-      <c r="C6" s="2">
-        <v>114470</v>
-      </c>
-      <c r="D6" s="2">
-        <v>106476</v>
-      </c>
-      <c r="E6" s="2">
-        <v>103614</v>
-      </c>
-      <c r="F6" s="2">
-        <v>97932</v>
-      </c>
-      <c r="G6" s="2">
-        <v>173163</v>
-      </c>
-      <c r="H6" s="2">
-        <v>139348</v>
-      </c>
-      <c r="I6" s="2">
-        <v>117112</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -997,28 +1005,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
+        <v>136228</v>
+      </c>
+      <c r="C7" s="2">
+        <v>167396</v>
+      </c>
+      <c r="D7" s="2">
+        <v>190862</v>
+      </c>
+      <c r="E7" s="2">
+        <v>144476</v>
+      </c>
+      <c r="F7" s="2">
+        <v>157576</v>
+      </c>
+      <c r="G7" s="2">
+        <v>169338</v>
+      </c>
+      <c r="H7" s="2">
+        <v>190131</v>
+      </c>
+      <c r="I7" s="2">
         <v>188245</v>
-      </c>
-      <c r="C7" s="2">
-        <v>190131</v>
-      </c>
-      <c r="D7" s="2">
-        <v>169338</v>
-      </c>
-      <c r="E7" s="2">
-        <v>157576</v>
-      </c>
-      <c r="F7" s="2">
-        <v>144476</v>
-      </c>
-      <c r="G7" s="2">
-        <v>190862</v>
-      </c>
-      <c r="H7" s="2">
-        <v>167396</v>
-      </c>
-      <c r="I7" s="2">
-        <v>136228</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -1029,28 +1037,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="2">
+        <v>43657</v>
+      </c>
+      <c r="C8" s="2">
+        <v>54579</v>
+      </c>
+      <c r="D8" s="2">
+        <v>61574</v>
+      </c>
+      <c r="E8" s="2">
+        <v>63872</v>
+      </c>
+      <c r="F8" s="2">
+        <v>68695</v>
+      </c>
+      <c r="G8" s="2">
+        <v>73898</v>
+      </c>
+      <c r="H8" s="2">
+        <v>80458</v>
+      </c>
+      <c r="I8" s="2">
         <v>80507</v>
-      </c>
-      <c r="C8" s="2">
-        <v>80458</v>
-      </c>
-      <c r="D8" s="2">
-        <v>73898</v>
-      </c>
-      <c r="E8" s="2">
-        <v>68695</v>
-      </c>
-      <c r="F8" s="2">
-        <v>63872</v>
-      </c>
-      <c r="G8" s="2">
-        <v>61574</v>
-      </c>
-      <c r="H8" s="2">
-        <v>54579</v>
-      </c>
-      <c r="I8" s="2">
-        <v>43657</v>
       </c>
       <c r="J8" t="s">
         <v>28</v>
@@ -1061,28 +1069,28 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
+        <v>106059</v>
+      </c>
+      <c r="C9" s="2">
+        <v>119101</v>
+      </c>
+      <c r="D9" s="2">
+        <v>129189</v>
+      </c>
+      <c r="E9" s="2">
+        <v>114752</v>
+      </c>
+      <c r="F9" s="2">
+        <v>139694</v>
+      </c>
+      <c r="G9" s="2">
+        <v>160543</v>
+      </c>
+      <c r="H9" s="2">
+        <v>198924</v>
+      </c>
+      <c r="I9" s="2">
         <v>201078</v>
-      </c>
-      <c r="C9" s="2">
-        <v>198924</v>
-      </c>
-      <c r="D9" s="2">
-        <v>160543</v>
-      </c>
-      <c r="E9" s="2">
-        <v>139694</v>
-      </c>
-      <c r="F9" s="2">
-        <v>114752</v>
-      </c>
-      <c r="G9" s="2">
-        <v>129189</v>
-      </c>
-      <c r="H9" s="2">
-        <v>119101</v>
-      </c>
-      <c r="I9" s="2">
-        <v>106059</v>
       </c>
       <c r="J9" t="s">
         <v>28</v>
@@ -1093,28 +1101,28 @@
         <v>18</v>
       </c>
       <c r="B10" s="2">
+        <v>126707</v>
+      </c>
+      <c r="C10" s="2">
+        <v>157484</v>
+      </c>
+      <c r="D10" s="2">
+        <v>167975</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90500</v>
+      </c>
+      <c r="F10" s="2">
+        <v>103979</v>
+      </c>
+      <c r="G10" s="2">
+        <v>106594</v>
+      </c>
+      <c r="H10" s="2">
+        <v>114153</v>
+      </c>
+      <c r="I10" s="2">
         <v>114698</v>
-      </c>
-      <c r="C10" s="2">
-        <v>114153</v>
-      </c>
-      <c r="D10" s="2">
-        <v>106594</v>
-      </c>
-      <c r="E10" s="2">
-        <v>103979</v>
-      </c>
-      <c r="F10" s="2">
-        <v>90500</v>
-      </c>
-      <c r="G10" s="2">
-        <v>167975</v>
-      </c>
-      <c r="H10" s="2">
-        <v>157484</v>
-      </c>
-      <c r="I10" s="2">
-        <v>126707</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -1125,28 +1133,28 @@
         <v>19</v>
       </c>
       <c r="B11" s="2">
+        <v>108483</v>
+      </c>
+      <c r="C11" s="2">
+        <v>134355</v>
+      </c>
+      <c r="D11" s="2">
+        <v>164442</v>
+      </c>
+      <c r="E11" s="2">
+        <v>143939</v>
+      </c>
+      <c r="F11" s="2">
+        <v>166770</v>
+      </c>
+      <c r="G11" s="2">
+        <v>186191</v>
+      </c>
+      <c r="H11" s="2">
+        <v>214922</v>
+      </c>
+      <c r="I11" s="2">
         <v>215874</v>
-      </c>
-      <c r="C11" s="2">
-        <v>214922</v>
-      </c>
-      <c r="D11" s="2">
-        <v>186191</v>
-      </c>
-      <c r="E11" s="2">
-        <v>166770</v>
-      </c>
-      <c r="F11" s="2">
-        <v>143939</v>
-      </c>
-      <c r="G11" s="2">
-        <v>164442</v>
-      </c>
-      <c r="H11" s="2">
-        <v>134355</v>
-      </c>
-      <c r="I11" s="2">
-        <v>108483</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
@@ -1157,28 +1165,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="2">
+        <v>155320</v>
+      </c>
+      <c r="C12" s="2">
+        <v>199922</v>
+      </c>
+      <c r="D12" s="2">
+        <v>238876</v>
+      </c>
+      <c r="E12" s="2">
+        <v>266133</v>
+      </c>
+      <c r="F12" s="2">
+        <v>303854</v>
+      </c>
+      <c r="G12" s="2">
+        <v>325251</v>
+      </c>
+      <c r="H12" s="2">
+        <v>366073</v>
+      </c>
+      <c r="I12" s="2">
         <v>365844</v>
-      </c>
-      <c r="C12" s="2">
-        <v>366073</v>
-      </c>
-      <c r="D12" s="2">
-        <v>325251</v>
-      </c>
-      <c r="E12" s="2">
-        <v>303854</v>
-      </c>
-      <c r="F12" s="2">
-        <v>266133</v>
-      </c>
-      <c r="G12" s="2">
-        <v>238876</v>
-      </c>
-      <c r="H12" s="2">
-        <v>199922</v>
-      </c>
-      <c r="I12" s="2">
-        <v>155320</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
@@ -1189,28 +1197,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
+        <v>54746</v>
+      </c>
+      <c r="C13" s="2">
+        <v>68465</v>
+      </c>
+      <c r="D13" s="2">
+        <v>77903</v>
+      </c>
+      <c r="E13" s="2">
+        <v>59944</v>
+      </c>
+      <c r="F13" s="2">
+        <v>61827</v>
+      </c>
+      <c r="G13" s="2">
+        <v>64628</v>
+      </c>
+      <c r="H13" s="2">
+        <v>67917</v>
+      </c>
+      <c r="I13" s="2">
         <v>67444</v>
-      </c>
-      <c r="C13" s="2">
-        <v>67917</v>
-      </c>
-      <c r="D13" s="2">
-        <v>64628</v>
-      </c>
-      <c r="E13" s="2">
-        <v>61827</v>
-      </c>
-      <c r="F13" s="2">
-        <v>59944</v>
-      </c>
-      <c r="G13" s="2">
-        <v>77903</v>
-      </c>
-      <c r="H13" s="2">
-        <v>68465</v>
-      </c>
-      <c r="I13" s="2">
-        <v>54746</v>
       </c>
       <c r="J13" t="s">
         <v>28</v>
@@ -1221,28 +1229,28 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
+        <v>200743</v>
+      </c>
+      <c r="C14" s="2">
+        <v>229383</v>
+      </c>
+      <c r="D14" s="2">
+        <v>289006</v>
+      </c>
+      <c r="E14" s="2">
+        <v>306275</v>
+      </c>
+      <c r="F14" s="2">
+        <v>360609</v>
+      </c>
+      <c r="G14" s="2">
+        <v>411924</v>
+      </c>
+      <c r="H14" s="2">
+        <v>443042</v>
+      </c>
+      <c r="I14" s="2">
         <v>443980</v>
-      </c>
-      <c r="C14" s="2">
-        <v>443042</v>
-      </c>
-      <c r="D14" s="2">
-        <v>411924</v>
-      </c>
-      <c r="E14" s="2">
-        <v>360609</v>
-      </c>
-      <c r="F14" s="2">
-        <v>306275</v>
-      </c>
-      <c r="G14" s="2">
-        <v>289006</v>
-      </c>
-      <c r="H14" s="2">
-        <v>229383</v>
-      </c>
-      <c r="I14" s="2">
-        <v>200743</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
@@ -1253,28 +1261,28 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
+        <v>146134</v>
+      </c>
+      <c r="C15" s="2">
+        <v>185782</v>
+      </c>
+      <c r="D15" s="2">
+        <v>226486</v>
+      </c>
+      <c r="E15" s="2">
+        <v>161538</v>
+      </c>
+      <c r="F15" s="2">
+        <v>175111</v>
+      </c>
+      <c r="G15" s="2">
+        <v>189749</v>
+      </c>
+      <c r="H15" s="2">
+        <v>211558</v>
+      </c>
+      <c r="I15" s="2">
         <v>209481</v>
-      </c>
-      <c r="C15" s="2">
-        <v>211558</v>
-      </c>
-      <c r="D15" s="2">
-        <v>189749</v>
-      </c>
-      <c r="E15" s="2">
-        <v>175111</v>
-      </c>
-      <c r="F15" s="2">
-        <v>161538</v>
-      </c>
-      <c r="G15" s="2">
-        <v>226486</v>
-      </c>
-      <c r="H15" s="2">
-        <v>185782</v>
-      </c>
-      <c r="I15" s="2">
-        <v>146134</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
@@ -1285,28 +1293,28 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
+        <v>61310</v>
+      </c>
+      <c r="C16" s="2">
+        <v>90342</v>
+      </c>
+      <c r="D16" s="2">
+        <v>97402</v>
+      </c>
+      <c r="E16" s="2">
+        <v>130127</v>
+      </c>
+      <c r="F16" s="2">
+        <v>150533</v>
+      </c>
+      <c r="G16" s="2">
+        <v>175580</v>
+      </c>
+      <c r="H16" s="2">
+        <v>206603</v>
+      </c>
+      <c r="I16" s="2">
         <v>211746</v>
-      </c>
-      <c r="C16" s="2">
-        <v>206603</v>
-      </c>
-      <c r="D16" s="2">
-        <v>175580</v>
-      </c>
-      <c r="E16" s="2">
-        <v>150533</v>
-      </c>
-      <c r="F16" s="2">
-        <v>130127</v>
-      </c>
-      <c r="G16" s="2">
-        <v>97402</v>
-      </c>
-      <c r="H16" s="2">
-        <v>90342</v>
-      </c>
-      <c r="I16" s="2">
-        <v>61310</v>
       </c>
       <c r="J16" t="s">
         <v>28</v>
@@ -1317,28 +1325,28 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
+        <v>80740</v>
+      </c>
+      <c r="C17" s="2">
+        <v>88979</v>
+      </c>
+      <c r="D17" s="2">
+        <v>103837</v>
+      </c>
+      <c r="E17" s="2">
+        <v>84045</v>
+      </c>
+      <c r="F17" s="2">
+        <v>99693</v>
+      </c>
+      <c r="G17" s="2">
+        <v>108587</v>
+      </c>
+      <c r="H17" s="2">
+        <v>120886</v>
+      </c>
+      <c r="I17" s="2">
         <v>123631</v>
-      </c>
-      <c r="C17" s="2">
-        <v>120886</v>
-      </c>
-      <c r="D17" s="2">
-        <v>108587</v>
-      </c>
-      <c r="E17" s="2">
-        <v>99693</v>
-      </c>
-      <c r="F17" s="2">
-        <v>84045</v>
-      </c>
-      <c r="G17" s="2">
-        <v>103837</v>
-      </c>
-      <c r="H17" s="2">
-        <v>88979</v>
-      </c>
-      <c r="I17" s="2">
-        <v>80740</v>
       </c>
       <c r="J17" t="s">
         <v>28</v>
@@ -1349,28 +1357,28 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
+        <v>94211</v>
+      </c>
+      <c r="C18" s="2">
+        <v>123238</v>
+      </c>
+      <c r="D18" s="2">
+        <v>138427</v>
+      </c>
+      <c r="E18" s="2">
+        <v>89063</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100759</v>
+      </c>
+      <c r="G18" s="2">
+        <v>108695</v>
+      </c>
+      <c r="H18" s="2">
+        <v>118276</v>
+      </c>
+      <c r="I18" s="2">
         <v>119688</v>
-      </c>
-      <c r="C18" s="2">
-        <v>118276</v>
-      </c>
-      <c r="D18" s="2">
-        <v>108695</v>
-      </c>
-      <c r="E18" s="2">
-        <v>100759</v>
-      </c>
-      <c r="F18" s="2">
-        <v>89063</v>
-      </c>
-      <c r="G18" s="2">
-        <v>138427</v>
-      </c>
-      <c r="H18" s="2">
-        <v>123238</v>
-      </c>
-      <c r="I18" s="2">
-        <v>94211</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -1381,28 +1389,28 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
+        <v>168818</v>
+      </c>
+      <c r="C19" s="2">
+        <v>211773</v>
+      </c>
+      <c r="D19" s="2">
+        <v>229259</v>
+      </c>
+      <c r="E19" s="2">
+        <v>145853</v>
+      </c>
+      <c r="F19" s="2">
+        <v>165351</v>
+      </c>
+      <c r="G19" s="2">
+        <v>182618</v>
+      </c>
+      <c r="H19" s="2">
+        <v>205653</v>
+      </c>
+      <c r="I19" s="2">
         <v>207281</v>
-      </c>
-      <c r="C19" s="2">
-        <v>205653</v>
-      </c>
-      <c r="D19" s="2">
-        <v>182618</v>
-      </c>
-      <c r="E19" s="2">
-        <v>165351</v>
-      </c>
-      <c r="F19" s="2">
-        <v>145853</v>
-      </c>
-      <c r="G19" s="2">
-        <v>229259</v>
-      </c>
-      <c r="H19" s="2">
-        <v>211773</v>
-      </c>
-      <c r="I19" s="2">
-        <v>168818</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
@@ -1413,28 +1421,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
+        <v>76292</v>
+      </c>
+      <c r="C20" s="2">
+        <v>83389</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100899</v>
+      </c>
+      <c r="E20" s="2">
+        <v>73145</v>
+      </c>
+      <c r="F20" s="2">
+        <v>81004</v>
+      </c>
+      <c r="G20" s="2">
+        <v>87585</v>
+      </c>
+      <c r="H20" s="2">
+        <v>98818</v>
+      </c>
+      <c r="I20" s="2">
         <v>100478</v>
-      </c>
-      <c r="C20" s="2">
-        <v>98818</v>
-      </c>
-      <c r="D20" s="2">
-        <v>87585</v>
-      </c>
-      <c r="E20" s="2">
-        <v>81004</v>
-      </c>
-      <c r="F20" s="2">
-        <v>73145</v>
-      </c>
-      <c r="G20" s="2">
-        <v>100899</v>
-      </c>
-      <c r="H20" s="2">
-        <v>83389</v>
-      </c>
-      <c r="I20" s="2">
-        <v>76292</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -1445,72 +1453,87 @@
         <v>32</v>
       </c>
       <c r="B21" s="2">
+        <v>52257</v>
+      </c>
+      <c r="C21" s="2">
+        <v>55030</v>
+      </c>
+      <c r="D21" s="2">
+        <v>79215</v>
+      </c>
+      <c r="E21" s="2">
+        <v>62509</v>
+      </c>
+      <c r="F21" s="2">
+        <v>67849</v>
+      </c>
+      <c r="G21" s="2">
+        <v>74799</v>
+      </c>
+      <c r="H21" s="2">
+        <v>91961</v>
+      </c>
+      <c r="I21" s="2">
         <v>90970</v>
       </c>
-      <c r="C21" s="2">
-        <v>91961</v>
-      </c>
-      <c r="D21" s="2">
-        <v>74799</v>
-      </c>
-      <c r="E21" s="2">
-        <v>67849</v>
-      </c>
-      <c r="F21" s="2">
-        <v>62509</v>
-      </c>
-      <c r="G21" s="2">
-        <v>79215</v>
-      </c>
-      <c r="H21" s="2">
-        <v>55030</v>
-      </c>
-      <c r="I21" s="2">
-        <v>52257</v>
-      </c>
       <c r="J21" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC3D375-00DB-4876-AAFB-CE0EC3A73511}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" xr:uid="{A568F9FA-FB6C-480C-8ED9-E50ADCE925EC}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{A568F9FA-FB6C-480C-8ED9-E50ADCE925EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>